--- a/Translation sheets/Dutch.xlsx
+++ b/Translation sheets/Dutch.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\Prison Labor Mod\Translation sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC2AD46-0F25-4AB8-A3D2-E0DC8905E480}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{CF5D6EBD-60F8-43F9-A1CC-353B0616DA62}"/>
   </bookViews>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="297">
   <si>
     <t>English</t>
   </si>
@@ -376,12 +377,6 @@
 [*] Prison area - prisoners in order to work need to reach target. You can check "Hold open" option on doors. Be aware, they will try to run if they see opportunity.
 [*] "Prisoners only" tools - You can mark orders and bills by tools that exclude colonist from work.
 [/list]</t>
-  </si>
-  <si>
-    <t>[h1]Links[/h1]
-[url=]Download[/url]
-[url=]Github[/url]
-[url=]Credits[/url]</t>
   </si>
   <si>
     <t>settings item</t>
@@ -998,6 +993,14 @@
   </si>
   <si>
     <t>PrisonLabor_Revolt.letterText</t>
+  </si>
+  <si>
+    <t>[h1]Links[/h1]
+[url=]Download[/url]
+[url=]Report bug[/url]
+[utl=]To-do list[/url]
+[url=]Github[/url]
+[url=]Credits[/url]</t>
   </si>
 </sst>
 </file>
@@ -1311,26 +1314,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,8 +1336,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1661,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B04E6-7593-465F-8DFF-3C928DB22BF4}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F98" sqref="F78:F98"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,19 +1687,19 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="19"/>
+      <c r="E1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="E2" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -1706,17 +1709,17 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="23" t="str">
+        <v>150</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="17" t="str">
         <f>"&lt;"&amp;E3&amp;"&gt;"&amp;C3&amp;"&lt;/"&amp;E3&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_PrisonerWork&gt;Forceer om te werken&lt;/PrisonLabor_PrisonerWork&gt;</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,17 +1728,17 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="23" t="str">
+        <v>109</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="17" t="str">
         <f t="shared" ref="F4:F47" si="0">"&lt;"&amp;E4&amp;"&gt;"&amp;C4&amp;"&lt;/"&amp;E4&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_WorkAndRecruit&gt;Werken en recruiteren&lt;/PrisonLabor_WorkAndRecruit&gt;</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,17 +1747,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="23" t="str">
+        <v>110</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerMessage&gt;Jouw gevangene is gestopt met werken!&lt;/PrisonLabor_LazyPrisonerMessage&gt;</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,17 +1766,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="23" t="str">
+        <v>111</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_WardenResponeThreshold&gt;Bewaker reactie drempel&lt;/PrisonLabor_WardenResponeThreshold&gt;</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,17 +1785,17 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="23" t="str">
+        <v>112</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StoppingWorkThreshold&gt;Staak werken drempel&lt;/PrisonLabor_StoppingWorkThreshold&gt;</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,484 +1804,484 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="23" t="str">
+        <v>116</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_WorkTypeDisabled&gt;Werkvorm onmogelijk voor gevangenen&lt;/PrisonLabor_WorkTypeDisabled&gt;</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="23" t="str">
+        <v>113</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ShowNews&gt;Toon nieuws&lt;/PrisonLabor_ShowNews&gt;</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="23" t="str">
+        <v>114</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ShowNewsDesc&gt;Toon nieuws over wijzingen wanneer gevangenen gedetecteerd worden.&lt;/PrisonLabor_ShowNewsDesc&gt;</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="23" t="str">
+        <v>115</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DefaultInterMode&gt;Standaard gevangene interactie modus&lt;/PrisonLabor_DefaultInterMode&gt;</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="23" t="str">
+        <v>117</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowedWorkTypes&gt;Toegestane werkvormen:&lt;/PrisonLabor_AllowedWorkTypes&gt;</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="23" t="str">
+        <v>118</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowAll&gt;Sta allen toe&lt;/PrisonLabor_AllowAll&gt;</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="23" t="str">
+        <v>119</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowAllWorktypes&gt;Sta alle werkvormen toe&lt;/PrisonLabor_AllowAllWorktypes&gt;</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="23" t="str">
+        <v>117</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowedWorktypesL&gt;Toegestane werkvormen:&lt;/PrisonLabor_AllowedWorktypesL&gt;</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="23" t="str">
+        <v>120</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Browse&gt;Doorblader&lt;/PrisonLabor_Browse&gt;</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="23" t="str">
+        <v>121</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationMechanics&gt;Motivatie mechanismen (!)&lt;/PrisonLabor_MotivationMechanics&gt;</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="23" t="str">
+        <v>122</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationWarning&gt;Wanneer aangekruist moet de gevangene gemotiveerd worden. \n\nWAARSCHUWING: Herladen opslag nodig.&lt;/PrisonLabor_MotivationWarning&gt;</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="23" t="str">
+        <v>293</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationIcons&gt;Inspiratie/Motivatie tekens&lt;/PrisonLabor_MotivationIcons&gt;</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="23" t="str">
+        <v>294</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="17" t="str">
         <f>"&lt;"&amp;E20&amp;"&gt;"&amp;C20&amp;"&lt;/"&amp;E20&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_MotivationIconsDesc&gt;Wanneer deze geactiveerd zijn worden deze getoont boven de hoofden van de gevangenen. Blauw icoon voor inspiratie en het groene icoon for het krijgen van motivatie door andere factoren.&lt;/PrisonLabor_MotivationIconsDesc&gt;</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="23" t="str">
+        <v>123</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_CanGrowAdvanced&gt;Gevangenen kunnen geadvanceerde planten groeien&lt;/PrisonLabor_CanGrowAdvanced&gt;</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="23" t="str">
+        <v>124</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_CanGrowAdvancedDesc&gt;Wanneer uitgezet kunnen gevangenen alleen planten groeien die geen vaardigheid nodig hebben.&lt;/PrisonLabor_CanGrowAdvancedDesc&gt;</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="23" t="str">
+        <v>125</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_RestartInfo&gt;Herstart het spel en sla je spel opnieuw op&lt;/PrisonLabor_RestartInfo&gt;</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F24" s="23" t="str">
+        <v>126</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_RestartInfo2&gt;Na deze stappen kan je de mod veilig uitschakelen&lt;/PrisonLabor_RestartInfo2&gt;</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="23" t="str">
+        <v>127</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DisableMod&gt;Schakel de mod uit&lt;/PrisonLabor_DisableMod&gt;</v>
       </c>
       <c r="G25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="23" t="str">
+        <v>128</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DisableModDesc&gt;Wanneer aangezet kunnen werelden die naar 'Veilige Modus' zijn getransferred worden gespeeld zonder de mod.&lt;/PrisonLabor_DisableModDesc&gt;</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="23" t="str">
+        <v>129</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Version&gt;Versie:&lt;/PrisonLabor_Version&gt;</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="23" t="str">
+        <v>130</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Difficulty&gt;Moeilijkheid:&lt;/PrisonLabor_Difficulty&gt;</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="23" t="str">
+        <v>131</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Defaults&gt;Standaard&lt;/PrisonLabor_Defaults&gt;</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="23" t="str">
+        <v>132</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyNormal&gt;Normaal&lt;/PrisonLabor_DifficultyNormal&gt;</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -2286,365 +2289,365 @@
       <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="23" t="str">
+      <c r="E31" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyCasual&gt;Casual&lt;/PrisonLabor_DifficultyCasual&gt;</v>
       </c>
       <c r="G31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="23" t="str">
+        <v>133</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyEasy&gt;Makkelijk&lt;/PrisonLabor_DifficultyEasy&gt;</v>
       </c>
       <c r="G32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="23" t="str">
+        <v>134</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyPeaceful&gt;Vredig&lt;/PrisonLabor_DifficultyPeaceful&gt;</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="23" t="str">
+        <v>135</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyJoke&gt;Een grap&lt;/PrisonLabor_DifficultyJoke&gt;</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="23" t="str">
+        <v>136</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerAlert&gt;Gevangenen werken niet&lt;/PrisonLabor_LazyPrisonerAlert&gt;</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="23" t="str">
+        <v>137</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerExplanationDef&gt;Gevangenen zijn lui, motiveer ze.&lt;/PrisonLabor_LazyPrisonerExplanationDef&gt;</v>
       </c>
       <c r="G36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="23" t="str">
+        <v>138</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerExplanation&gt;Deze gevangenen zijn lui:\n\n{0}\nProbeer ze te motiveren&lt;/PrisonLabor_LazyPrisonerExplanation&gt;</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="23" t="str">
+        <v>139</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrisonerAlert&gt;Gevangenen verhongeren&lt;/PrisonLabor_StarvingPrisonerAlert&gt;</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="23" t="str">
+        <v>140</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrisonerExplanationDef&gt;Gevangenen verhongeren en willen niet werken&lt;/PrisonLabor_StarvingPrisonerExplanationDef&gt;</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="23" t="str">
+        <v>141</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrionserExplanation&gt;Deze gevangenen verhongeren en willen niet werkeni:\n\n{0}&lt;/PrisonLabor_StarvingPrionserExplanation&gt;</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="23" t="str">
+        <v>142</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LaborArea&gt;Gevangenen Werk Zone&lt;/PrisonLabor_LaborArea&gt;</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="23" t="str">
+        <v>143</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LaborAreaDesc&gt;Werk Zone is gebied waar alleen gevangenen kunnen werken. Kolonisten kunnen hier niet werken tenzij het een bewaker type opdracht is.&lt;/PrisonLabor_LaborAreaDesc&gt;</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="23" t="str">
+        <v>144</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ClearLaborArea&gt;Verwijder Werk Zone&lt;/PrisonLabor_ClearLaborArea&gt;</v>
       </c>
       <c r="G43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="23" t="str">
+        <v>145</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ExpandLaborArea&gt;Breid Werk Zone uit&lt;/PrisonLabor_ExpandLaborArea&gt;</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="23" t="str">
+        <v>146</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ColonistsOnly&gt;Alleen kolonisten&lt;/PrisonLabor_ColonistsOnly&gt;</v>
       </c>
       <c r="G45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="23" t="str">
+        <v>147</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_PrisonersOnly&gt;Alleen  gevangenen&lt;/PrisonLabor_PrisonersOnly&gt;</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="23" t="str">
+        <v>148</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ColonyOnly&gt;Alleen kolonie&lt;/PrisonLabor_ColonyOnly&gt;</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="E48" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,17 +2656,17 @@
         <v>48</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="23" t="str">
+        <v>149</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="17" t="str">
         <f>"&lt;"&amp;E49&amp;"&gt;"&amp;C49&amp;"&lt;/"&amp;E49&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Indroduction.label&gt;Gevangenisarbeid&lt;/PrisonLabor_Indroduction.label&gt;</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -2672,17 +2675,17 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="23" t="str">
+        <v>151</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" s="17" t="str">
         <f t="shared" ref="F50:F64" si="1">"&lt;"&amp;E50&amp;"&gt;"&amp;C50&amp;"&lt;/"&amp;E50&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Indroduction.helpText&gt;Je kan gevangenen forceren te werken.\n\nOm dit te doen moet je de "Forceer om te werken" optie van het "Gevangenen" tab\n\nGevangenen zal aan opdrachten werken die zich bevinden in toegestane gebieden. Wees zeker dat de gevangenen hun werkplek kunnen bereiken.\n\n\Ze kunnen alleen koken, delven, planten snijden, vervoeren, schoonmaken of planten groeien als dit geen speciale vaardigheid eist.\n\n\Gevangenen zullen soms weigeren om te werken. De reden hiervoor kan verschillen: Hij kan hongerig, gewond vermoeid of niet gemotiveerd genoeg zijn.\n\nTIP: Je kan in het "Arbeids" tab verschillende arbeidstypes selecteren.\n\nTIP: Als je een oven in een gevangenis plaats kunnen de gevangenen rauw voedsel koken.\n\nTIP: Je kan gevangenen door deuren laten bewegen door deze open te laten staan&lt;/PrisonLabor_Indroduction.helpText&gt;</v>
       </c>
       <c r="G50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,17 +2694,17 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F51" s="23" t="str">
+        <v>152</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.label&gt;Gevangenen motiveren&lt;/PrisonLabor_Motivation.label&gt;</v>
       </c>
       <c r="G51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2710,17 +2713,17 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F52" s="23" t="str">
+        <v>153</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F52" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.helpText&gt;Een van je gevangenen is gestopt met werken.\nHij wil niet meer werken tenzij hij gemotiveerd word.\n\nJe kan de status van zijn motivatie bekijken in de "Behoefte" tab.\n\nWees zeker dat je genoeg bewakers (controleer "Arbeids" tab) of roep een van je kolonisten op om bij de gevangenen te gaan staan.\n\nLage motivatie kan tot een opstand leiden.&lt;/PrisonLabor_Motivation.helpText&gt;</v>
       </c>
       <c r="G52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,17 +2732,17 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="F53" s="23" t="str">
+        <v>154</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Growing.label&gt;Planten groeien door gevangenen&lt;/PrisonLabor_Growing.label&gt;</v>
       </c>
       <c r="G53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2748,17 +2751,17 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54" s="23" t="str">
+        <v>155</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Growing.helpText&gt;Gevangenen kunnen alleen planten groeien die geen speciale vaardigheid nodig hebben zoals katoen of aardappelen. Ze kunnen daarintegen wel alle planten oogsten die hiertoe gemarkeerd zijn.&lt;/PrisonLabor_Growing.helpText&gt;</v>
       </c>
       <c r="G54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,17 +2770,17 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="23" t="str">
+        <v>156</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Management.label&gt;Gevangenisarbeid beheer&lt;/PrisonLabor_Management.label&gt;</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2786,18 +2789,18 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="23" t="str">
+        <v>157</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Management.helpText&gt;Je kan je gevangenisarbeid op verschillende manier beheren.\n\nJe kan gevangenen verschillende arbeidstypen aangeven via de "Arbeids" tab.\n\nJe kan aangeven wanneer gevangenen moeten werken, rusten of slapen via de "Beperkingen" tab.\n\nJe kan arbeid beperken tot "Alleen gevangenen". Voor werk opdrachten die een gebied dekken kan je "Gevangenen Werk Zone" selecteren via "Architect"-&gt;"Opdrachten" tab.\nVoor opdrachten is een optie: "Alleen gevangenen" mogelijk.
 &lt;/PrisonLabor_Management.helpText&gt;</v>
       </c>
       <c r="G56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,17 +2809,17 @@
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F57" s="23" t="str">
+        <v>158</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Timetable.label&gt;Gevangenen tijd beperkingen&lt;/PrisonLabor_Timetable.label&gt;</v>
       </c>
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2825,31 +2828,31 @@
         <v>57</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="23" t="str">
+        <v>159</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Timetable.helpText&gt;Je kan tijd beperkingen instellen voor gevangenen.\n\n"Arbeid" tijd zorgt dat gevangenen altijd werken, ook bij vermoeidheid of honger.\n\n"Plezier" tijd zorgt dat gevangenen gaan rusten en zorgt voor een motivatie bonus.\n\n"Slaap" tijd zorgt dat gevangenen in hun cel blijven.\n\n"Alles" is de standaard instelling.&lt;/PrisonLabor_Timetable.helpText&gt;</v>
       </c>
       <c r="G58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
       <c r="E59" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,17 +2861,17 @@
         <v>59</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" s="23" t="str">
+        <v>160</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.label&gt;Motivatie&lt;/PrisonLabor_Motivation.label&gt;</v>
       </c>
       <c r="G60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2877,31 +2880,31 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="23" t="str">
+        <v>161</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.description&gt;Motivatie geeft weer hoe gemotiveerd gevangenen zijn om te werken. Motivatie kan verbeterd worden als kolonisten in de buurt zijn.&lt;/PrisonLabor_Motivation.description&gt;</v>
       </c>
       <c r="G61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
       <c r="E62" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2910,17 +2913,17 @@
         <v>62</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="23" t="str">
+        <v>162</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F63" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_PrisonerChains.stages.0.label&gt;Niet actief&lt;/PrisonLabor_PrisonerChains.stages.0.label&gt;</v>
       </c>
       <c r="G63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2929,17 +2932,17 @@
         <v>61</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="23" t="str">
+        <v>163</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="17" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_PrisonerChains.stages.1.label&gt;Gevangenen in de boeien&lt;/PrisonLabor_PrisonerChains.stages.1.label&gt;</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,12 +2951,12 @@
         <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,26 +2965,26 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
       <c r="G66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
       <c r="E67" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,17 +2993,17 @@
         <v>66</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F68" s="23" t="str">
+        <v>167</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="17" t="str">
         <f t="shared" ref="F68:F70" si="2">"&lt;"&amp;E68&amp;"&gt;"&amp;C68&amp;"&lt;/"&amp;E68&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Revolt.label&gt;opstand&lt;/PrisonLabor_Revolt.label&gt;</v>
       </c>
       <c r="G68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3009,17 +3012,17 @@
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="23" t="str">
+        <v>166</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;PrisonLabor_Revolt.letterLabel&gt;Opstand&lt;/PrisonLabor_Revolt.letterLabel&gt;</v>
       </c>
       <c r="G69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3028,31 +3031,31 @@
         <v>68</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="23" t="str">
+        <v>168</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;PrisonLabor_Revolt.letterText&gt;Een opstand is begonnen door {0}. De gevangenen hebben zich verzameld onder de groepering {1} en zijn een opstand begonnen met zelfgemaakte wapens.&lt;/PrisonLabor_Revolt.letterText&gt;</v>
       </c>
       <c r="G70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
       <c r="E71" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,115 +3064,115 @@
         <v>70</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="23" t="str">
+        <v>169</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F72" s="17" t="str">
         <f t="shared" ref="F72:F76" si="3">"&lt;"&amp;E72&amp;"&gt;"&amp;C72&amp;"&lt;/"&amp;E72&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_PrisonerSupervise.reportString&gt;Houdt gevangene DoelA in de gate.&lt;/PrisonLabor_PrisonerSupervise.reportString&gt;</v>
       </c>
       <c r="G72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F73" s="23" t="str">
+        <v>170</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="17" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_DeliverFood_Tweak.reportString&gt;Geef eten aan DoelA tot DoelB&lt;/PrisonLabor_DeliverFood_Tweak.reportString&gt;</v>
       </c>
       <c r="G73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F74" s="23" t="str">
+        <v>171</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="17" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_Mine_Tweak.reportString&gt;Delf DoelA&lt;/PrisonLabor_Mine_Tweak.reportString&gt;</v>
       </c>
       <c r="G74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F75" s="23" t="str">
+        <v>172</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="17" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_Harvest_Tweak.reportString&gt;Oogst DoelA&lt;/PrisonLabor_Harvest_Tweak.reportString&gt;</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="23" t="str">
+        <v>173</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="17" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_CutPlant_Tweak.reportString&gt;Snij DoelA&lt;/PrisonLabor_CutPlant_Tweak.reportString&gt;</v>
       </c>
       <c r="G76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="E77" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F77" s="25"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="E77" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="23"/>
       <c r="G77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3178,17 +3181,17 @@
         <v>76</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F78" s="23" t="str">
+        <v>174</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="17" t="str">
         <f t="shared" ref="F78:F98" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.label&gt;Houdt gevangene in de gate.&lt;/PrisonLabor_SupervisePrisonLabor.label&gt;</v>
       </c>
       <c r="G78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,17 +3200,17 @@
         <v>76</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="23" t="str">
+        <v>174</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.verb&gt;Houdt gevangene in de gate.&lt;/PrisonLabor_SupervisePrisonLabor.verb&gt;</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3216,407 +3219,407 @@
         <v>77</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F80" s="23" t="str">
+        <v>174</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.gerund&gt;Houdt gevangene in de gate.&lt;/PrisonLabor_SupervisePrisonLabor.gerund&gt;</v>
       </c>
       <c r="G80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" s="23" t="str">
+        <v>175</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F81" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;Geef voedsel aan gevangenen&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;</v>
       </c>
       <c r="G81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F82" s="23" t="str">
+        <v>176</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;Geef voedsel aan&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;</v>
       </c>
       <c r="G82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F83" s="23" t="str">
+        <v>177</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;Voedsel aan het geven&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;</v>
       </c>
       <c r="G83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F84" s="23" t="str">
+        <v>179</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F84" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.label&gt;Delf&lt;/PrisonLabor_Mine_Tweak.label&gt;</v>
       </c>
       <c r="G84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F85" s="23" t="str">
+        <v>179</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.verb&gt;Delf&lt;/PrisonLabor_Mine_Tweak.verb&gt;</v>
       </c>
       <c r="G85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F86" s="23" t="str">
+        <v>178</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.gerund&gt;Delven&lt;/PrisonLabor_Mine_Tweak.gerund&gt;</v>
       </c>
       <c r="G86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="23" t="str">
+        <v>180</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F87" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.label&gt;Snij planten&lt;/PrisonLabor_PlantsCut_Tweak.label&gt;</v>
       </c>
       <c r="G87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F88" s="23" t="str">
+        <v>181</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F88" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.verb&gt;Snij&lt;/PrisonLabor_PlantsCut_Tweak.verb&gt;</v>
       </c>
       <c r="G88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" s="23" t="str">
+        <v>182</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.gerund&gt;Snijden&lt;/PrisonLabor_PlantsCut_Tweak.gerund&gt;</v>
       </c>
       <c r="G89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F90" s="23" t="str">
+        <v>183</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F90" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.label&gt;Oogst planten&lt;/PrisonLabor_GrowerHarvest_Tweak.label&gt;</v>
       </c>
       <c r="G90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F91" s="23" t="str">
+        <v>184</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.verb&gt;Oogst&lt;/PrisonLabor_GrowerHarvest_Tweak.verb&gt;</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F92" s="23" t="str">
+        <v>185</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F92" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.gerund&gt;Oogsten&lt;/PrisonLabor_GrowerHarvest_Tweak.gerund&gt;</v>
       </c>
       <c r="G92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F93" s="23" t="str">
+        <v>186</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F93" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.label&gt;Zaai planten&lt;/PrisonLabor_GrowerSow_Tweak.label&gt;</v>
       </c>
       <c r="G93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="F94" s="23" t="str">
+        <v>187</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F94" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.verb&gt;Zaai&lt;/PrisonLabor_GrowerSow_Tweak.verb&gt;</v>
       </c>
       <c r="G94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="F95" s="23" t="str">
+        <v>188</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.gerund&gt;Zaaien&lt;/PrisonLabor_GrowerSow_Tweak.gerund&gt;</v>
       </c>
       <c r="G95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F96" s="23" t="str">
+        <v>189</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F96" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.label&gt;Maak vuiligheid schoon&lt;/PrisonLabor_CleanFilth_Tweak.label&gt;</v>
       </c>
       <c r="G96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="23" t="str">
+        <v>190</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.verb&gt;Maak schoon&lt;/PrisonLabor_CleanFilth_Tweak.verb&gt;</v>
       </c>
       <c r="G97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F98" s="23" t="str">
+        <v>191</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F98" s="17" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.gerund&gt;Schoonmaken&lt;/PrisonLabor_CleanFilth_Tweak.gerund&gt;</v>
       </c>
       <c r="G98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="27"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
       <c r="G99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,12 +3630,12 @@
         <v>96</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
+        <v>192</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
       <c r="G100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="285" x14ac:dyDescent="0.25">
@@ -3643,93 +3646,86 @@
         <v>98</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
+        <v>193</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
       <c r="G101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
+        <v>194</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
       <c r="G102" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
+        <v>296</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
       <c r="G103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="E104" s="18"/>
+      <c r="F104" s="19"/>
       <c r="G104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
       <c r="G105" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E106" s="28"/>
-      <c r="F106" s="29"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="19"/>
       <c r="G106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E71:F71"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="E1:F1"/>
@@ -3742,6 +3738,11 @@
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A71:C71"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E71:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
